--- a/level-2/uri/phase-2-2/uri-phase-2-2.xlsx
+++ b/level-2/uri/phase-2-2/uri-phase-2-2.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64393C91-C8B7-471F-9711-B5C293B8D303}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A09EA18-16BD-4456-B97A-9DC3BA9F320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="uri level 2-2" sheetId="14" r:id="rId1"/>
+    <sheet name="uri 2-2" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -751,6 +764,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -778,78 +794,12 @@
     <xf numFmtId="10" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <fill>
         <patternFill>
@@ -1421,52 +1371,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="20" t="s">
+      <c r="H1" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="e">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C184)</f>
         <v>#DIV/0!</v>
@@ -1496,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <f>COUNTA(J4:J954)</f>
+        <f>COUNTA(J4:J834)</f>
         <v>160</v>
       </c>
     </row>
@@ -2041,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="9"/>
-      <c r="J29" s="23" t="s">
+      <c r="J29" s="14" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2062,7 +2012,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="9"/>
-      <c r="J30" s="23" t="s">
+      <c r="J30" s="14" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2083,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="9"/>
-      <c r="J31" s="23" t="s">
+      <c r="J31" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2104,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="9"/>
-      <c r="J32" s="23" t="s">
+      <c r="J32" s="14" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2125,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="9"/>
-      <c r="J33" s="23" t="s">
+      <c r="J33" s="14" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2146,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="9"/>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2167,7 +2117,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="9"/>
-      <c r="J35" s="23" t="s">
+      <c r="J35" s="14" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2188,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="9"/>
-      <c r="J36" s="23" t="s">
+      <c r="J36" s="14" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2209,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="9"/>
-      <c r="J37" s="23" t="s">
+      <c r="J37" s="14" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2230,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="9"/>
-      <c r="J38" s="23" t="s">
+      <c r="J38" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2251,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="9"/>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2272,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="9"/>
-      <c r="J40" s="23" t="s">
+      <c r="J40" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2293,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="9"/>
-      <c r="J41" s="23" t="s">
+      <c r="J41" s="14" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2314,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="9"/>
-      <c r="J42" s="23" t="s">
+      <c r="J42" s="14" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2335,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="9"/>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2671,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="9"/>
-      <c r="J59" s="23" t="s">
+      <c r="J59" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2692,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="9"/>
-      <c r="J60" s="23" t="s">
+      <c r="J60" s="14" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2713,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="9"/>
-      <c r="J61" s="23" t="s">
+      <c r="J61" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2734,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="I62" s="9"/>
-      <c r="J62" s="23" t="s">
+      <c r="J62" s="14" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2755,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="9"/>
-      <c r="J63" s="23" t="s">
+      <c r="J63" s="14" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2776,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="9"/>
-      <c r="J64" s="23" t="s">
+      <c r="J64" s="14" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2797,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="9"/>
-      <c r="J65" s="23" t="s">
+      <c r="J65" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2818,7 +2768,7 @@
         <v>0</v>
       </c>
       <c r="I66" s="9"/>
-      <c r="J66" s="23" t="s">
+      <c r="J66" s="14" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2839,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="9"/>
-      <c r="J67" s="23" t="s">
+      <c r="J67" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2860,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="9"/>
-      <c r="J68" s="23" t="s">
+      <c r="J68" s="14" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2881,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="I69" s="9"/>
-      <c r="J69" s="23" t="s">
+      <c r="J69" s="14" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2902,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="I70" s="9"/>
-      <c r="J70" s="23" t="s">
+      <c r="J70" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3545,7 +3495,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J102" s="23" t="s">
+      <c r="J102" s="14" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3565,7 +3515,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J103" s="23" t="s">
+      <c r="J103" s="14" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3585,7 +3535,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J104" s="23" t="s">
+      <c r="J104" s="14" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3605,7 +3555,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J105" s="23" t="s">
+      <c r="J105" s="14" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3625,7 +3575,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J106" s="23" t="s">
+      <c r="J106" s="14" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3645,7 +3595,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J107" s="23" t="s">
+      <c r="J107" s="14" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3665,7 +3615,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J108" s="23" t="s">
+      <c r="J108" s="14" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3685,7 +3635,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J109" s="23" t="s">
+      <c r="J109" s="14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3705,7 +3655,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J110" s="23" t="s">
+      <c r="J110" s="14" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3725,7 +3675,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J111" s="23" t="s">
+      <c r="J111" s="14" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3745,7 +3695,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J112" s="23" t="s">
+      <c r="J112" s="14" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3765,7 +3715,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J113" s="23" t="s">
+      <c r="J113" s="14" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3785,7 +3735,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J114" s="23" t="s">
+      <c r="J114" s="14" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3805,7 +3755,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J115" s="23" t="s">
+      <c r="J115" s="14" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3825,7 +3775,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J116" s="23" t="s">
+      <c r="J116" s="14" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3845,7 +3795,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J117" s="23" t="s">
+      <c r="J117" s="14" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3865,7 +3815,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J118" s="23" t="s">
+      <c r="J118" s="14" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4445,7 +4395,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J147" s="23" t="s">
+      <c r="J147" s="14" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4465,7 +4415,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J148" s="23" t="s">
+      <c r="J148" s="14" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4485,7 +4435,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J149" s="23" t="s">
+      <c r="J149" s="14" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4505,7 +4455,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J150" s="23" t="s">
+      <c r="J150" s="14" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4525,7 +4475,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J151" s="23" t="s">
+      <c r="J151" s="14" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4545,7 +4495,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J152" s="23" t="s">
+      <c r="J152" s="14" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4565,7 +4515,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J153" s="23" t="s">
+      <c r="J153" s="14" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4995,148 +4945,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1 I24:I26">
-    <cfRule type="cellIs" dxfId="39" priority="50" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="37" priority="38" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="36" priority="37" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J164:J168">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J177">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J44:J50">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J74">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91:J93 J95:J98">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J94">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J99">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91:J99">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J100">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J101">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J136:J138 J140:J143">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J139">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J144">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J136:J144">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J145">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J146">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
